--- a/Análise/Test ScenariosPedro.xlsx
+++ b/Análise/Test ScenariosPedro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\upskill_java1_labprg_grupo3\Análise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77FF0E41-6B00-41DE-951E-191267132C43}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD74FE18-9A7E-4753-988B-E56E90AD4BFD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="993" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="993" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="UC 1 - Registar Organização" sheetId="7" r:id="rId3"/>
     <sheet name="UC 4 - Definir Comp.Técnica" sheetId="4" r:id="rId4"/>
     <sheet name="UC 5 - Especificar Colaborador" sheetId="8" r:id="rId5"/>
+    <sheet name="UC 6 - Definir Tarefa" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="155">
   <si>
     <t>Project Name</t>
   </si>
@@ -621,6 +622,48 @@
   </si>
   <si>
     <t>Popup Message "Collaborator email is invalid"</t>
+  </si>
+  <si>
+    <t>TS_006</t>
+  </si>
+  <si>
+    <t>Check Definir Tarefa functionality</t>
+  </si>
+  <si>
+    <t>TC_UC6_001</t>
+  </si>
+  <si>
+    <t>TC_UC6_002</t>
+  </si>
+  <si>
+    <t>TC_UC6_003</t>
+  </si>
+  <si>
+    <t>Valid task specification</t>
+  </si>
+  <si>
+    <t>1. Enter valid task name
+2. Enter valid informal description
+3. Enter valid technical description
+4. Enter valid time estimate
+5. Enter valid cost estimate
+6. Select valid task category
+7. Click specify task button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">task name: create a portfolio website
+informal description: informal description
+technical description: technical description
+time estimate: 5 weeks
+cost estimate: 1000€
+task category: web developer
+</t>
+  </si>
+  <si>
+    <t>Message "Task created, awaits publishing"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Successful creation of a task </t>
   </si>
 </sst>
 </file>
@@ -2012,7 +2055,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CED2DD0-1346-4305-A01D-B09D1D741F09}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
@@ -2305,4 +2348,273 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A8D896A-30A2-4828-B6E3-1CE02DB6890F}">
+  <dimension ref="A1:J21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.25" customWidth="1"/>
+    <col min="2" max="2" width="25.25" style="1" customWidth="1"/>
+    <col min="3" max="5" width="25.25" customWidth="1"/>
+    <col min="6" max="10" width="24.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
 </file>